--- a/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010114</t>
+          <t>000404</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝新兴成长混合</t>
+          <t>易方达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.89</t>
+          <t>78.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010305</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合A</t>
+          <t>华夏复兴混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50.42</t>
+          <t>49.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010306</t>
+          <t>009808</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏创新驱动混合C</t>
+          <t>易方达创新成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.42</t>
+          <t>84.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>000601</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国收益增强债券A</t>
+          <t>华宝创新优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>23.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9479</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000812</t>
+          <t>010106</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国收益增强债券C</t>
+          <t>华夏核心科技6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>35.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000601</t>
+          <t>010305</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝创新优选混合</t>
+          <t>华夏创新驱动混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>61.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>540010</t>
+          <t>010114</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信科技先锋股票</t>
+          <t>华宝新兴成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1317</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>540010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏复兴混合</t>
+          <t>汇丰晋信科技先锋股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>000124</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>华宝服务优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>007349</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>华夏科技创新混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96.24</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>240005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>华宝多策略增长</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>96.24</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5892</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>240005</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝多策略增长</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010106</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏核心科技6个月定期开放混合A</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010107</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏核心科技6个月定期开放混合C</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3816</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000124</t>
+          <t>240004</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华宝服务优选混合</t>
+          <t>华宝动力组合混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000965</t>
+          <t>007346</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇丰晋信新动力混合</t>
+          <t>易方达科技创新混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000417</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国联安新精选灵活配置混合</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33.24</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>000965</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>汇丰晋信新动力混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>001534</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>华宝万物互联灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>85.24</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>易方达新兴成长灵活配置混合</t>
+          <t>华宝绿色领先股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005955</t>
+          <t>010107</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>易方达鑫转添利混合A</t>
+          <t>华夏核心科技6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005956</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>易方达鑫转添利混合C</t>
+          <t>富国收益增强债券A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001534</t>
+          <t>009189</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华宝万物互联灵活配置混合</t>
+          <t>华宝成长策略混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>010306</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华宝绿色领先股票</t>
+          <t>华夏创新驱动混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.37</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>000417</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
+          <t>国联安新精选灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+          <t>33.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>007350</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>华夏科技创新混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004726</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合A</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>004727</t>
+          <t>000812</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合C</t>
+          <t>富国收益增强债券C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1332,26 +1642,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007346</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>易方达科技创新混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1360,25 +1680,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007349</t>
+          <t>005955</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华夏科技创新混合A</t>
+          <t>易方达鑫转添利混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007350</t>
+          <t>004726</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华夏科技创新混合C</t>
+          <t>先锋聚优灵活配置混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1416,26 +1756,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009189</t>
+          <t>005956</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华宝成长策略混合</t>
+          <t>易方达鑫转添利混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1444,26 +1794,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009808</t>
+          <t>004727</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>易方达创新成长混合</t>
+          <t>先锋聚优灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>67.14</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,15 +1858,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000124</t>
+          <t>000601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝服务优选混合</t>
+          <t>华宝创新优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.40</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9743</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>000124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>华宝服务优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000601</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝创新优选混合</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3721</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>010114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>华宝新兴成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.67</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010114</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝新兴成长混合</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝绿色领先股票</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001534</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝万物互联灵活配置混合</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.77</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>001534</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
+          <t>华宝万物互联灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>华宝绿色领先股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2303,4 +2304,514 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2814,4 +2815,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3327,4 +3328,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3336,7 +3337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3347,17 +3348,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3367,14 +3388,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.84</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.2419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3383,14 +3426,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3399,14 +3464,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.1</v>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3415,13 +3502,3341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9727</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7978</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6807</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5947</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5391</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4639</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4522</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>22.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6735,7 +6736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6746,17 +6747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6766,14 +6787,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.47</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6782,14 +6825,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.84</v>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6798,14 +6863,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7</v>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6814,14 +6901,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.1</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6830,13 +6939,1421 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>22.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8236,7 +8237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8247,17 +8248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8267,14 +8288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.16</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8283,14 +8326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>88</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.47</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8299,14 +8364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.84</v>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8315,14 +8402,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8331,14 +8440,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.1</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8940</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -8347,13 +8478,2385 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>22.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
+++ b/数据整理/stocks/A股/深证主板/002384-东山精密.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D2" t="n">
-        <v>20.67</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>37.47</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>1.84</v>
+        <v>37.47</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>22.48</v>
       </c>
     </row>
@@ -600,6 +617,4918 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>387.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8632</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4840</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4730</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8203</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5963</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012765</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4219</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3890</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012766</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>561150</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富国中证500ESG基准ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>016263</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3085,7 +8014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4585,7 +9514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7976,518 +12905,6 @@
       </c>
       <c r="H89" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>240008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝收益增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4504</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3810</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3492</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2474</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1017</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0803</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000058</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国联安安泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>31.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0737</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0621</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001534</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝万物互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000417</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国联安新精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000458</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>英大领先回报混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.46</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8552,36 +12969,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>240008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>华宝收益增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2745</t>
+          <t>0.4504</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8590,36 +13007,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>14.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.55</t>
+          <t>83.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1234</t>
+          <t>0.3810</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8628,36 +13045,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.55</t>
+          <t>82.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0998</t>
+          <t>0.3492</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -8666,36 +13083,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001534</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝万物互联灵活配置混合</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>85.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.2474</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8704,36 +13121,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000058</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安安泰灵活配置混合</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0496</t>
+          <t>0.1017</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -8742,36 +13159,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009189</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝成长策略混合</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0803</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -8780,36 +13197,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>000058</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>国联安安泰灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>31.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0245</t>
+          <t>0.0737</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -8818,36 +13235,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000417</t>
+          <t>002861</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安新精选灵活配置混合</t>
+          <t>工银瑞信智能制造股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27.67</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -8856,32 +13273,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>001534</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>华宝万物互联灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>58.24</t>
+          <t>84.23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -8894,36 +13311,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010002</t>
+          <t>000417</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票C</t>
+          <t>国联安新精选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>58.24</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -8932,36 +13349,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011084</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合A</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25.54</t>
+          <t>88.80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -8970,34 +13387,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011085</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通资管新添益6个月持有期混合C</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25.54</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9006,6 +13425,516 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9479,7 +14408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
